--- a/internal_datamap_files/DECODER_covariate_map.xlsx
+++ b/internal_datamap_files/DECODER_covariate_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Epi/internal_datamap_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365EC5E-E074-ED4B-A4FF-CB27843E6F1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F57CF5-85C9-6D47-9D5C-E04012D5859D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="16560" windowHeight="15540" xr2:uid="{32EA9505-1495-5A4A-BC8B-D943AD42845F}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="17520" windowHeight="15540" xr2:uid="{32EA9505-1495-5A4A-BC8B-D943AD42845F}"/>
   </bookViews>
   <sheets>
     <sheet name="covars" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="169">
   <si>
     <t>pfldhct_cont</t>
   </si>
@@ -166,9 +166,6 @@
     <t>alt_dem_fctb_clst</t>
   </si>
   <si>
-    <t>alt_dem_clst_log_scale</t>
-  </si>
-  <si>
     <t>ape_habitat_fctb_clst</t>
   </si>
   <si>
@@ -496,12 +493,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>precip_lag_cont_log_scale_clst</t>
-  </si>
-  <si>
-    <t>temp_lag_cont_log_scale_clst</t>
-  </si>
-  <si>
     <t>risk_factor_raw</t>
   </si>
   <si>
@@ -511,12 +502,6 @@
     <t>llin_causal_model</t>
   </si>
   <si>
-    <t>dist_water_cont_clst</t>
-  </si>
-  <si>
-    <t>dist_water_cont_log_scale_clst</t>
-  </si>
-  <si>
     <t>Distance to Water</t>
   </si>
   <si>
@@ -526,7 +511,28 @@
     <t>Distance to Healthcare Center</t>
   </si>
   <si>
-    <t>hlthdist_cont_clst_log_scale_clst</t>
+    <t>precip_lag_cont_scale_clst</t>
+  </si>
+  <si>
+    <t>temp_lag_cont_scale_clst</t>
+  </si>
+  <si>
+    <t>wtrdist_cont_scale_clst</t>
+  </si>
+  <si>
+    <t>wtrdist_cont_clst</t>
+  </si>
+  <si>
+    <t>hlthdist_cont_scale_clst</t>
+  </si>
+  <si>
+    <t>alt_dem_cont_scale_clst</t>
+  </si>
+  <si>
+    <t>hlthinsrnc_causal_model</t>
+  </si>
+  <si>
+    <t>bldmtrl_causal_model</t>
   </si>
 </sst>
 </file>
@@ -557,12 +563,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -577,10 +589,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,1439 +908,1496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF2B875-9713-3B46-8F52-EEA3AF9FD86B}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94:H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>101</v>
+      <c r="B16" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="H16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>102</v>
+      <c r="B18" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="H18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>103</v>
+      <c r="B19" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>104</v>
+      <c r="B21" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>105</v>
+      <c r="B22" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>106</v>
+      <c r="B23" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>107</v>
+      <c r="B25" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>111</v>
+      <c r="B31" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B32" t="s">
-        <v>127</v>
-      </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="G32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>112</v>
+      <c r="B33" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="F33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>156</v>
-      </c>
-      <c r="B46" t="s">
-        <v>121</v>
-      </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="G46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" t="s">
-        <v>120</v>
+        <v>162</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="G47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>45</v>
       </c>
       <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
         <v>122</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
+        <v>154</v>
+      </c>
+      <c r="G81" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" t="s">
-        <v>155</v>
-      </c>
-      <c r="E55" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>164</v>
-      </c>
-      <c r="B56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" t="s">
-        <v>155</v>
-      </c>
-      <c r="F62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" t="s">
-        <v>155</v>
-      </c>
-      <c r="F63" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" t="s">
-        <v>155</v>
-      </c>
-      <c r="F64" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" t="s">
-        <v>155</v>
-      </c>
-      <c r="F65" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" t="s">
-        <v>141</v>
-      </c>
-      <c r="D73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" t="s">
-        <v>141</v>
-      </c>
-      <c r="E74" t="s">
-        <v>155</v>
-      </c>
-      <c r="F74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" t="s">
-        <v>141</v>
-      </c>
-      <c r="E75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" t="s">
-        <v>141</v>
-      </c>
-      <c r="E76" t="s">
-        <v>155</v>
-      </c>
-      <c r="F76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>69</v>
-      </c>
-      <c r="B77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" t="s">
-        <v>155</v>
-      </c>
-      <c r="F77" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" t="s">
-        <v>141</v>
-      </c>
-      <c r="E78" t="s">
-        <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" t="s">
-        <v>141</v>
-      </c>
-      <c r="E79" t="s">
-        <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" t="s">
-        <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" t="s">
-        <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>74</v>
-      </c>
-      <c r="B82" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" t="s">
-        <v>141</v>
-      </c>
-      <c r="D82" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" t="s">
-        <v>140</v>
-      </c>
-      <c r="C83" t="s">
-        <v>141</v>
-      </c>
-      <c r="D83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84" t="s">
-        <v>141</v>
-      </c>
-      <c r="E84" t="s">
-        <v>155</v>
-      </c>
-      <c r="F84" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>77</v>
-      </c>
-      <c r="B85" t="s">
-        <v>140</v>
-      </c>
-      <c r="C85" t="s">
-        <v>141</v>
-      </c>
-      <c r="E85" t="s">
-        <v>155</v>
-      </c>
-      <c r="F85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" t="s">
-        <v>141</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>79</v>
-      </c>
-      <c r="B87" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" t="s">
-        <v>145</v>
-      </c>
-      <c r="C90" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" t="s">
-        <v>146</v>
-      </c>
-      <c r="C91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>84</v>
-      </c>
-      <c r="B92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>85</v>
-      </c>
-      <c r="B93" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" t="s">
-        <v>149</v>
-      </c>
-      <c r="C94" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95" t="s">
-        <v>150</v>
-      </c>
-      <c r="C95" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96" t="s">
-        <v>151</v>
-      </c>
-      <c r="C96" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
         <v>152</v>
-      </c>
-      <c r="C98" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2350,13 +2420,13 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/internal_datamap_files/DECODER_covariate_map.xlsx
+++ b/internal_datamap_files/DECODER_covariate_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Epi/internal_datamap_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F57CF5-85C9-6D47-9D5C-E04012D5859D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDF1E56-F197-FA41-B96C-E6AE15FC515A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="17520" windowHeight="15540" xr2:uid="{32EA9505-1495-5A4A-BC8B-D943AD42845F}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="21300" windowHeight="15540" xr2:uid="{32EA9505-1495-5A4A-BC8B-D943AD42845F}"/>
   </bookViews>
   <sheets>
     <sheet name="covars" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="169">
   <si>
     <t>pfldhct_cont</t>
   </si>
@@ -91,9 +91,6 @@
     <t>hv21345_fctb</t>
   </si>
   <si>
-    <t>wlthrcde_fctm</t>
-  </si>
-  <si>
     <t>hv108_cont</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>ape_habitat_fctb_clst</t>
   </si>
   <si>
-    <t>urbanscore_fctm_clust</t>
-  </si>
-  <si>
     <t>urbanscore_cont_clust</t>
   </si>
   <si>
@@ -403,12 +397,6 @@
     <t>Bednet use percentage (weighted)</t>
   </si>
   <si>
-    <t>hab481_fctb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Insurance </t>
-  </si>
-  <si>
     <t>Median wealth (weighted)</t>
   </si>
   <si>
@@ -529,17 +517,29 @@
     <t>alt_dem_cont_scale_clst</t>
   </si>
   <si>
-    <t>hlthinsrnc_causal_model</t>
-  </si>
-  <si>
     <t>bldmtrl_causal_model</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>too much misclassification</t>
+  </si>
+  <si>
+    <t>drop this isn't the right way to look at this variable</t>
+  </si>
+  <si>
+    <t>drop this is arbitary</t>
+  </si>
+  <si>
+    <t>wlthrcde_combscor_cont</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -558,6 +558,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -589,16 +596,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -609,6 +636,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9642AEEC-1C3D-9A43-A7D2-CDF0CBB430CB}" name="Table1" displayName="Table1" ref="A1:H97" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H97" xr:uid="{98EC8B8D-282A-D043-A58A-AF48F2935060}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{EEB19C3C-CBF1-4B4B-9C00-800BFCBC3E95}" name="column_name"/>
+    <tableColumn id="2" xr3:uid="{5C52603A-5F4E-EA4A-8992-9F4DD02E241C}" name="var_label"/>
+    <tableColumn id="3" xr3:uid="{2A406CAF-974E-8549-AF6B-B3B4C77B4C15}" name="level"/>
+    <tableColumn id="4" xr3:uid="{318E1F12-0B00-AC44-9E7F-1707B90BD696}" name="notes"/>
+    <tableColumn id="9" xr3:uid="{49BA17FA-5C37-7B44-90EE-C9C2512DBA71}" name="risk_factor_raw"/>
+    <tableColumn id="5" xr3:uid="{95C67EE9-08C2-A04C-8549-CF68E77A18A0}" name="risk_factor_model"/>
+    <tableColumn id="6" xr3:uid="{A31F60C4-441E-E643-AAEB-E07726B0BAB9}" name="llin_causal_model"/>
+    <tableColumn id="8" xr3:uid="{D5810E9A-3CBA-F847-9B89-CC3EE34D8C8B}" name="bldmtrl_causal_model"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,141 +958,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF2B875-9713-3B46-8F52-EEA3AF9FD86B}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94:H96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1050,16 +1103,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1067,49 +1120,49 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1117,36 +1170,36 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>150</v>
       </c>
       <c r="H16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" t="s">
-        <v>154</v>
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1154,19 +1207,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>150</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1174,39 +1227,36 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" t="s">
-        <v>154</v>
+        <v>112</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1214,22 +1264,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1237,340 +1284,283 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>154</v>
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>107</v>
       </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>109</v>
-      </c>
       <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" t="s">
-        <v>154</v>
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>154</v>
+        <v>112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>111</v>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" t="s">
-        <v>154</v>
-      </c>
-      <c r="G33" t="s">
-        <v>154</v>
-      </c>
-      <c r="H33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>116</v>
+      <c r="B35" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>117</v>
+      <c r="B36" t="s">
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>116</v>
+      <c r="B39" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>117</v>
+      <c r="B40" t="s">
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1578,830 +1568,720 @@
         <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="E44" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>119</v>
+        <v>157</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="F45" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" t="s">
+        <v>150</v>
+      </c>
+      <c r="H45" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G46" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
         <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" t="s">
-        <v>154</v>
+        <v>136</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" t="s">
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
         <v>154</v>
       </c>
-      <c r="F50" t="s">
-        <v>154</v>
-      </c>
-      <c r="G50" t="s">
-        <v>154</v>
-      </c>
-      <c r="H50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" t="s">
-        <v>122</v>
-      </c>
       <c r="C51" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" t="s">
-        <v>154</v>
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" t="s">
+        <v>150</v>
+      </c>
+      <c r="H52" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H53" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>123</v>
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" t="s">
-        <v>154</v>
-      </c>
-      <c r="E54" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" t="s">
-        <v>154</v>
-      </c>
-      <c r="G54" t="s">
-        <v>154</v>
-      </c>
-      <c r="H54" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" t="s">
+        <v>150</v>
+      </c>
+      <c r="H56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" t="s">
+        <v>150</v>
+      </c>
+      <c r="H80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" t="s">
         <v>140</v>
       </c>
-      <c r="D56" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F57" t="s">
-        <v>154</v>
-      </c>
-      <c r="G57" t="s">
-        <v>154</v>
-      </c>
-      <c r="H57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" t="s">
-        <v>140</v>
-      </c>
-      <c r="D71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" t="s">
-        <v>140</v>
-      </c>
-      <c r="E74" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" t="s">
-        <v>140</v>
-      </c>
-      <c r="E75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" t="s">
-        <v>140</v>
-      </c>
-      <c r="E76" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79" t="s">
-        <v>140</v>
-      </c>
-      <c r="E79" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" t="s">
-        <v>140</v>
-      </c>
-      <c r="E80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" t="s">
-        <v>137</v>
-      </c>
-      <c r="C81" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" t="s">
-        <v>154</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
-      </c>
-      <c r="G81" t="s">
-        <v>154</v>
-      </c>
-      <c r="H81" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C82" t="s">
-        <v>140</v>
-      </c>
-      <c r="D82" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>74</v>
-      </c>
-      <c r="B83" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" t="s">
-        <v>140</v>
-      </c>
-      <c r="D83" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>75</v>
-      </c>
-      <c r="B84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" t="s">
-        <v>140</v>
-      </c>
-      <c r="E84" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" t="s">
         <v>141</v>
       </c>
-      <c r="C87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C90" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
         <v>142</v>
       </c>
-      <c r="C88" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" t="s">
         <v>143</v>
       </c>
-      <c r="C89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" t="s">
         <v>144</v>
       </c>
-      <c r="C90" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>82</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" t="s">
         <v>145</v>
       </c>
-      <c r="C91" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="C94" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" t="s">
         <v>146</v>
       </c>
-      <c r="C92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
         <v>147</v>
       </c>
-      <c r="C93" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C97" t="s">
         <v>148</v>
-      </c>
-      <c r="C94" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" t="s">
-        <v>150</v>
-      </c>
-      <c r="C96" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>89</v>
-      </c>
-      <c r="B98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C98" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2417,16 +2297,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/internal_datamap_files/DECODER_covariate_map.xlsx
+++ b/internal_datamap_files/DECODER_covariate_map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="39020" windowHeight="27160"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="37180" windowHeight="25020"/>
   </bookViews>
   <sheets>
     <sheet name="covars" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="162">
   <si>
     <t>pfldhct_cont</t>
   </si>
@@ -96,12 +96,6 @@
     <t>hv21345_fctb</t>
   </si>
   <si>
-    <t>hv108_cont</t>
-  </si>
-  <si>
-    <t>hv108_cont_scale</t>
-  </si>
-  <si>
     <t>hv246_fctb</t>
   </si>
   <si>
@@ -168,24 +162,9 @@
     <t>hml20_cont_clst</t>
   </si>
   <si>
-    <t>wlthrcde_fctm_clst_q50</t>
-  </si>
-  <si>
-    <t>hv108_cont_clst_q50</t>
-  </si>
-  <si>
     <t>hml20_cont_scale_clst</t>
   </si>
   <si>
-    <t>hv108_cont_scale_clst</t>
-  </si>
-  <si>
-    <t>wlthrcde_fctm_clst_q50_fctm</t>
-  </si>
-  <si>
-    <t>hab481_cont_scale_clst</t>
-  </si>
-  <si>
     <t>anyatm_cont_clst</t>
   </si>
   <si>
@@ -342,15 +321,6 @@
     <t>Bednet use percentage (weighted)</t>
   </si>
   <si>
-    <t>Median wealth (weighted)</t>
-  </si>
-  <si>
-    <t>Median Education (weighted)</t>
-  </si>
-  <si>
-    <t>Health Insurance Percentage (weighted)</t>
-  </si>
-  <si>
     <t>Any antimalarial percentage (weighted)</t>
   </si>
   <si>
@@ -441,9 +411,6 @@
     <t>wlthrcde_combscor_cont</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>collinear</t>
   </si>
   <si>
@@ -526,6 +493,30 @@
   </si>
   <si>
     <t>sens</t>
+  </si>
+  <si>
+    <t>hv106_fctb</t>
+  </si>
+  <si>
+    <t>wlthrcde_combscor_cont_scale_clst</t>
+  </si>
+  <si>
+    <t>Mean wealth (weighted)</t>
+  </si>
+  <si>
+    <t>Higher Education percentage (weighted)</t>
+  </si>
+  <si>
+    <t>hv106_cont_scale_clst</t>
+  </si>
+  <si>
+    <t>wlthrcde_combscor_cont_clst</t>
+  </si>
+  <si>
+    <t>hv106_cont_clst</t>
+  </si>
+  <si>
+    <t>spatial_predictions</t>
   </si>
 </sst>
 </file>
@@ -684,11 +675,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1387,8 +1378,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG79" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:AG79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG76" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A1:AG76">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="cluster"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:AG79">
+    <sortCondition ref="C1:C79"/>
+  </sortState>
   <tableColumns count="33">
     <tableColumn id="1" name="column_name"/>
     <tableColumn id="2" name="var_label"/>
@@ -1397,7 +1397,7 @@
     <tableColumn id="6" name="collinear" dataDxfId="28"/>
     <tableColumn id="9" name="risk_factor_raw" dataDxfId="27"/>
     <tableColumn id="5" name="risk_factor_model" dataDxfId="26"/>
-    <tableColumn id="7" name="Column1" dataDxfId="25"/>
+    <tableColumn id="7" name="spatial_predictions" dataDxfId="25"/>
     <tableColumn id="8" name="Column2" dataDxfId="24"/>
     <tableColumn id="10" name="Column3" dataDxfId="23"/>
     <tableColumn id="11" name="Column4" dataDxfId="22"/>
@@ -1725,135 +1725,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO79"/>
+  <dimension ref="A1:BO76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="T1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="V1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="W1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="X1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Y1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Z1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+    </row>
+    <row r="2" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -1896,46 +1897,46 @@
       <c r="AU2" s="6"/>
       <c r="AV2" s="6"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
+    <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -1952,46 +1953,46 @@
       <c r="AU3" s="6"/>
       <c r="AV3" s="6"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
+    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
@@ -2008,46 +2009,46 @@
       <c r="AU4" s="6"/>
       <c r="AV4" s="6"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
+    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
@@ -2064,46 +2065,46 @@
       <c r="AU5" s="6"/>
       <c r="AV5" s="6"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
+    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
@@ -2120,46 +2121,46 @@
       <c r="AU6" s="6"/>
       <c r="AV6" s="6"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
+    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
@@ -2176,46 +2177,46 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="6"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
+    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
@@ -2232,46 +2233,46 @@
       <c r="AU8" s="6"/>
       <c r="AV8" s="6"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
+    <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
@@ -2288,46 +2289,46 @@
       <c r="AU9" s="6"/>
       <c r="AV9" s="6"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
+    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
@@ -2345,47 +2346,45 @@
       <c r="AV10" s="6"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
@@ -2403,47 +2402,45 @@
       <c r="AV11" s="6"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
@@ -2461,45 +2458,45 @@
       <c r="AV12" s="6"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
@@ -2517,47 +2514,49 @@
       <c r="AV13" s="6"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
@@ -2573,47 +2572,49 @@
       <c r="AV14" s="6"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
@@ -2629,47 +2630,47 @@
       <c r="AV15" s="6"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
@@ -2687,47 +2688,47 @@
       <c r="AV16" s="6"/>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
@@ -2745,45 +2746,47 @@
       <c r="AV17" s="6"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
@@ -2801,47 +2804,45 @@
       <c r="AV18" s="6"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
@@ -2859,47 +2860,45 @@
       <c r="AV19" s="6"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
@@ -2917,45 +2916,47 @@
       <c r="AV20" s="6"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
@@ -2973,47 +2974,47 @@
       <c r="AV21" s="6"/>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
@@ -3031,47 +3032,49 @@
       <c r="AV22" s="6"/>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
+      <c r="A23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
@@ -3089,47 +3092,49 @@
       <c r="AV23" s="6"/>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
@@ -3147,45 +3152,47 @@
       <c r="AV24" s="6"/>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
@@ -3203,47 +3210,49 @@
       <c r="AV25" s="6"/>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
+      <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
@@ -3261,47 +3270,47 @@
       <c r="AV26" s="6"/>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
+      <c r="A27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
@@ -3319,45 +3328,49 @@
       <c r="AV27" s="6"/>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
+      <c r="A28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
@@ -3375,47 +3388,51 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
@@ -3433,45 +3450,47 @@
       <c r="AV29" s="6"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
+      <c r="A30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
@@ -3489,76 +3508,80 @@
       <c r="AV30" s="6"/>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
+      <c r="A31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="6"/>
-      <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="6"/>
-      <c r="AV31" s="6"/>
+      <c r="B31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -3604,17 +3627,19 @@
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -3660,17 +3685,19 @@
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>160</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -3716,19 +3743,23 @@
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="G35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3772,19 +3803,23 @@
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="G36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3828,19 +3863,23 @@
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3884,17 +3923,19 @@
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -3940,19 +3981,23 @@
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="G39" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3996,17 +4041,19 @@
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -4052,17 +4099,19 @@
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -4108,20 +4157,20 @@
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -4166,20 +4215,20 @@
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -4222,46 +4271,50 @@
       <c r="AU43" s="2"/>
       <c r="AV43" s="2"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-      <c r="AG44" s="9"/>
+    <row r="44" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
@@ -4278,46 +4331,50 @@
       <c r="AU44" s="2"/>
       <c r="AV44" s="2"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9"/>
-      <c r="AF45" s="9"/>
-      <c r="AG45" s="9"/>
+    <row r="45" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
@@ -4334,48 +4391,46 @@
       <c r="AU45" s="2"/>
       <c r="AV45" s="2"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
+    <row r="46" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
@@ -4392,46 +4447,50 @@
       <c r="AU46" s="2"/>
       <c r="AV46" s="2"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
+    <row r="47" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
@@ -4448,48 +4507,48 @@
       <c r="AU47" s="2"/>
       <c r="AV47" s="2"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
+    <row r="48" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
@@ -4506,46 +4565,48 @@
       <c r="AU48" s="2"/>
       <c r="AV48" s="2"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
+    <row r="49" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
@@ -4562,48 +4623,50 @@
       <c r="AU49" s="2"/>
       <c r="AV49" s="2"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
+    <row r="50" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
@@ -4620,46 +4683,50 @@
       <c r="AU50" s="2"/>
       <c r="AV50" s="2"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
+    <row r="51" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
@@ -4676,48 +4743,46 @@
       <c r="AU51" s="2"/>
       <c r="AV51" s="2"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
+    <row r="52" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
@@ -4734,46 +4799,50 @@
       <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
+    <row r="53" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
@@ -4790,46 +4859,50 @@
       <c r="AU53" s="2"/>
       <c r="AV53" s="2"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="9"/>
-      <c r="AG54" s="9"/>
+    <row r="54" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
@@ -4846,46 +4919,50 @@
       <c r="AU54" s="2"/>
       <c r="AV54" s="2"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="9"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
-      <c r="AG55" s="9"/>
+    <row r="55" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
@@ -4902,46 +4979,50 @@
       <c r="AU55" s="2"/>
       <c r="AV55" s="2"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="9"/>
+    <row r="56" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
@@ -4958,46 +5039,48 @@
       <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-      <c r="AB57" s="9"/>
-      <c r="AC57" s="9"/>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="9"/>
-      <c r="AF57" s="9"/>
-      <c r="AG57" s="9"/>
+    <row r="57" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
@@ -5014,46 +5097,48 @@
       <c r="AU57" s="2"/>
       <c r="AV57" s="2"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="9"/>
-      <c r="AF58" s="9"/>
-      <c r="AG58" s="9"/>
+    <row r="58" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
@@ -5070,46 +5155,48 @@
       <c r="AU58" s="2"/>
       <c r="AV58" s="2"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="9"/>
-      <c r="AG59" s="9"/>
+    <row r="59" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
@@ -5126,46 +5213,48 @@
       <c r="AU59" s="2"/>
       <c r="AV59" s="2"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
-      <c r="AB60" s="9"/>
-      <c r="AC60" s="9"/>
-      <c r="AD60" s="9"/>
-      <c r="AE60" s="9"/>
-      <c r="AF60" s="9"/>
-      <c r="AG60" s="9"/>
+    <row r="60" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
@@ -5182,48 +5271,50 @@
       <c r="AU60" s="2"/>
       <c r="AV60" s="2"/>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="9"/>
-      <c r="AF61" s="9"/>
-      <c r="AG61" s="9"/>
+    <row r="61" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
@@ -5240,46 +5331,46 @@
       <c r="AU61" s="2"/>
       <c r="AV61" s="2"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
-      <c r="AB62" s="9"/>
-      <c r="AC62" s="9"/>
-      <c r="AD62" s="9"/>
-      <c r="AE62" s="9"/>
-      <c r="AF62" s="9"/>
-      <c r="AG62" s="9"/>
+    <row r="62" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
@@ -5296,46 +5387,46 @@
       <c r="AU62" s="2"/>
       <c r="AV62" s="2"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="2" t="s">
+    <row r="63" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-      <c r="AA63" s="9"/>
-      <c r="AB63" s="9"/>
-      <c r="AC63" s="9"/>
-      <c r="AD63" s="9"/>
-      <c r="AE63" s="9"/>
-      <c r="AF63" s="9"/>
-      <c r="AG63" s="9"/>
+      <c r="C63" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
@@ -5352,214 +5443,214 @@
       <c r="AU63" s="2"/>
       <c r="AV63" s="2"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="9"/>
-      <c r="AC64" s="9"/>
-      <c r="AD64" s="9"/>
-      <c r="AE64" s="9"/>
-      <c r="AF64" s="9"/>
-      <c r="AG64" s="9"/>
-      <c r="AH64" s="2"/>
-      <c r="AI64" s="2"/>
-      <c r="AJ64" s="2"/>
-      <c r="AK64" s="2"/>
-      <c r="AL64" s="2"/>
-      <c r="AM64" s="2"/>
-      <c r="AN64" s="2"/>
-      <c r="AO64" s="2"/>
-      <c r="AP64" s="2"/>
-      <c r="AQ64" s="2"/>
-      <c r="AR64" s="2"/>
-      <c r="AS64" s="2"/>
-      <c r="AT64" s="2"/>
-      <c r="AU64" s="2"/>
-      <c r="AV64" s="2"/>
-    </row>
-    <row r="65" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="9"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
-      <c r="AG65" s="9"/>
-      <c r="AH65" s="2"/>
-      <c r="AI65" s="2"/>
-      <c r="AJ65" s="2"/>
-      <c r="AK65" s="2"/>
-      <c r="AL65" s="2"/>
-      <c r="AM65" s="2"/>
-      <c r="AN65" s="2"/>
-      <c r="AO65" s="2"/>
-      <c r="AP65" s="2"/>
-      <c r="AQ65" s="2"/>
-      <c r="AR65" s="2"/>
-      <c r="AS65" s="2"/>
-      <c r="AT65" s="2"/>
-      <c r="AU65" s="2"/>
-      <c r="AV65" s="2"/>
-    </row>
-    <row r="66" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
-      <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
-      <c r="AD66" s="9"/>
-      <c r="AE66" s="9"/>
-      <c r="AF66" s="9"/>
-      <c r="AG66" s="9"/>
-      <c r="AH66" s="2"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
-      <c r="AM66" s="2"/>
-      <c r="AN66" s="2"/>
-      <c r="AO66" s="2"/>
-      <c r="AP66" s="2"/>
-      <c r="AQ66" s="2"/>
-      <c r="AR66" s="2"/>
-      <c r="AS66" s="2"/>
-      <c r="AT66" s="2"/>
-      <c r="AU66" s="2"/>
-      <c r="AV66" s="2"/>
-    </row>
-    <row r="67" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
-      <c r="AD67" s="10"/>
-      <c r="AE67" s="10"/>
-      <c r="AF67" s="10"/>
-      <c r="AG67" s="10"/>
+    <row r="64" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+      <c r="AP64" s="4"/>
+      <c r="AQ64" s="4"/>
+      <c r="AR64" s="4"/>
+      <c r="AS64" s="4"/>
+      <c r="AT64" s="4"/>
+      <c r="AU64" s="4"/>
+      <c r="AV64" s="4"/>
+    </row>
+    <row r="65" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="4"/>
+      <c r="AM65" s="4"/>
+      <c r="AN65" s="4"/>
+      <c r="AO65" s="4"/>
+      <c r="AP65" s="4"/>
+      <c r="AQ65" s="4"/>
+      <c r="AR65" s="4"/>
+      <c r="AS65" s="4"/>
+      <c r="AT65" s="4"/>
+      <c r="AU65" s="4"/>
+      <c r="AV65" s="4"/>
+    </row>
+    <row r="66" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="13"/>
+      <c r="AC66" s="13"/>
+      <c r="AD66" s="13"/>
+      <c r="AE66" s="13"/>
+      <c r="AF66" s="13"/>
+      <c r="AG66" s="13"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="4"/>
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="4"/>
+      <c r="AL66" s="4"/>
+      <c r="AM66" s="4"/>
+      <c r="AN66" s="4"/>
+      <c r="AO66" s="4"/>
+      <c r="AP66" s="4"/>
+      <c r="AQ66" s="4"/>
+      <c r="AR66" s="4"/>
+      <c r="AS66" s="4"/>
+      <c r="AT66" s="4"/>
+      <c r="AU66" s="4"/>
+      <c r="AV66" s="4"/>
+    </row>
+    <row r="67" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="13"/>
+      <c r="Z67" s="13"/>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="13"/>
+      <c r="AC67" s="13"/>
+      <c r="AD67" s="13"/>
+      <c r="AE67" s="13"/>
+      <c r="AF67" s="13"/>
+      <c r="AG67" s="13"/>
       <c r="AH67" s="4"/>
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
@@ -5576,46 +5667,46 @@
       <c r="AU67" s="4"/>
       <c r="AV67" s="4"/>
     </row>
-    <row r="68" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10"/>
+    <row r="68" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+      <c r="AA68" s="13"/>
+      <c r="AB68" s="13"/>
+      <c r="AC68" s="13"/>
+      <c r="AD68" s="13"/>
+      <c r="AE68" s="13"/>
+      <c r="AF68" s="13"/>
+      <c r="AG68" s="13"/>
       <c r="AH68" s="4"/>
       <c r="AI68" s="4"/>
       <c r="AJ68" s="4"/>
@@ -5632,46 +5723,46 @@
       <c r="AU68" s="4"/>
       <c r="AV68" s="4"/>
     </row>
-    <row r="69" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
-      <c r="AG69" s="10"/>
+    <row r="69" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+      <c r="AA69" s="13"/>
+      <c r="AB69" s="13"/>
+      <c r="AC69" s="13"/>
+      <c r="AD69" s="13"/>
+      <c r="AE69" s="13"/>
+      <c r="AF69" s="13"/>
+      <c r="AG69" s="13"/>
       <c r="AH69" s="4"/>
       <c r="AI69" s="4"/>
       <c r="AJ69" s="4"/>
@@ -5688,46 +5779,46 @@
       <c r="AU69" s="4"/>
       <c r="AV69" s="4"/>
     </row>
-    <row r="70" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
-      <c r="AD70" s="10"/>
-      <c r="AE70" s="10"/>
-      <c r="AF70" s="10"/>
-      <c r="AG70" s="10"/>
+    <row r="70" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+      <c r="AA70" s="13"/>
+      <c r="AB70" s="13"/>
+      <c r="AC70" s="13"/>
+      <c r="AD70" s="13"/>
+      <c r="AE70" s="13"/>
+      <c r="AF70" s="13"/>
+      <c r="AG70" s="13"/>
       <c r="AH70" s="4"/>
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
@@ -5744,46 +5835,46 @@
       <c r="AU70" s="4"/>
       <c r="AV70" s="4"/>
     </row>
-    <row r="71" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
-      <c r="AD71" s="10"/>
-      <c r="AE71" s="10"/>
-      <c r="AF71" s="10"/>
-      <c r="AG71" s="10"/>
+    <row r="71" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="13"/>
+      <c r="AB71" s="13"/>
+      <c r="AC71" s="13"/>
+      <c r="AD71" s="13"/>
+      <c r="AE71" s="13"/>
+      <c r="AF71" s="13"/>
+      <c r="AG71" s="13"/>
       <c r="AH71" s="4"/>
       <c r="AI71" s="4"/>
       <c r="AJ71" s="4"/>
@@ -5800,46 +5891,46 @@
       <c r="AU71" s="4"/>
       <c r="AV71" s="4"/>
     </row>
-    <row r="72" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="10"/>
-      <c r="AF72" s="10"/>
-      <c r="AG72" s="10"/>
+    <row r="72" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="13"/>
+      <c r="AE72" s="13"/>
+      <c r="AF72" s="13"/>
+      <c r="AG72" s="13"/>
       <c r="AH72" s="4"/>
       <c r="AI72" s="4"/>
       <c r="AJ72" s="4"/>
@@ -5856,214 +5947,271 @@
       <c r="AU72" s="4"/>
       <c r="AV72" s="4"/>
     </row>
-    <row r="73" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="10"/>
-      <c r="AF73" s="10"/>
-      <c r="AG73" s="10"/>
-      <c r="AH73" s="4"/>
-      <c r="AI73" s="4"/>
-      <c r="AJ73" s="4"/>
-      <c r="AK73" s="4"/>
-      <c r="AL73" s="4"/>
-      <c r="AM73" s="4"/>
-      <c r="AN73" s="4"/>
-      <c r="AO73" s="4"/>
-      <c r="AP73" s="4"/>
-      <c r="AQ73" s="4"/>
-      <c r="AR73" s="4"/>
-      <c r="AS73" s="4"/>
-      <c r="AT73" s="4"/>
-      <c r="AU73" s="4"/>
-      <c r="AV73" s="4"/>
-    </row>
-    <row r="74" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10"/>
-      <c r="AF74" s="10"/>
-      <c r="AG74" s="10"/>
-      <c r="AH74" s="4"/>
-      <c r="AI74" s="4"/>
-      <c r="AJ74" s="4"/>
-      <c r="AK74" s="4"/>
-      <c r="AL74" s="4"/>
-      <c r="AM74" s="4"/>
-      <c r="AN74" s="4"/>
-      <c r="AO74" s="4"/>
-      <c r="AP74" s="4"/>
-      <c r="AQ74" s="4"/>
-      <c r="AR74" s="4"/>
-      <c r="AS74" s="4"/>
-      <c r="AT74" s="4"/>
-      <c r="AU74" s="4"/>
-      <c r="AV74" s="4"/>
-    </row>
-    <row r="75" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
-      <c r="Z75" s="10"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
-      <c r="AD75" s="10"/>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="10"/>
-      <c r="AG75" s="10"/>
-      <c r="AH75" s="4"/>
-      <c r="AI75" s="4"/>
-      <c r="AJ75" s="4"/>
-      <c r="AK75" s="4"/>
-      <c r="AL75" s="4"/>
-      <c r="AM75" s="4"/>
-      <c r="AN75" s="4"/>
-      <c r="AO75" s="4"/>
-      <c r="AP75" s="4"/>
-      <c r="AQ75" s="4"/>
-      <c r="AR75" s="4"/>
-      <c r="AS75" s="4"/>
-      <c r="AT75" s="4"/>
-      <c r="AU75" s="4"/>
-      <c r="AV75" s="4"/>
-    </row>
-    <row r="76" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="11"/>
-      <c r="AC76" s="11"/>
-      <c r="AD76" s="11"/>
-      <c r="AE76" s="11"/>
-      <c r="AF76" s="11"/>
-      <c r="AG76" s="11"/>
+    <row r="73" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+      <c r="AA73" s="13"/>
+      <c r="AB73" s="13"/>
+      <c r="AC73" s="13"/>
+      <c r="AD73" s="13"/>
+      <c r="AE73" s="13"/>
+      <c r="AF73" s="13"/>
+      <c r="AG73" s="13"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+      <c r="AM73" s="5"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="5"/>
+      <c r="AP73" s="5"/>
+      <c r="AQ73" s="5"/>
+      <c r="AR73" s="5"/>
+      <c r="AS73" s="5"/>
+      <c r="AT73" s="5"/>
+      <c r="AU73" s="5"/>
+      <c r="AV73" s="5"/>
+      <c r="AW73" s="5"/>
+      <c r="AX73" s="5"/>
+      <c r="AY73" s="5"/>
+      <c r="AZ73" s="5"/>
+      <c r="BA73" s="5"/>
+      <c r="BB73" s="5"/>
+      <c r="BC73" s="5"/>
+      <c r="BD73" s="5"/>
+      <c r="BE73" s="5"/>
+      <c r="BF73" s="5"/>
+      <c r="BG73" s="5"/>
+      <c r="BH73" s="5"/>
+      <c r="BI73" s="5"/>
+      <c r="BJ73" s="5"/>
+      <c r="BK73" s="5"/>
+      <c r="BL73" s="5"/>
+      <c r="BM73" s="5"/>
+      <c r="BN73" s="5"/>
+      <c r="BO73" s="5"/>
+    </row>
+    <row r="74" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
+      <c r="AC74" s="13"/>
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="13"/>
+      <c r="AF74" s="13"/>
+      <c r="AG74" s="13"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="5"/>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="5"/>
+      <c r="AV74" s="5"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="5"/>
+      <c r="AZ74" s="5"/>
+      <c r="BA74" s="5"/>
+      <c r="BB74" s="5"/>
+      <c r="BC74" s="5"/>
+      <c r="BD74" s="5"/>
+      <c r="BE74" s="5"/>
+      <c r="BF74" s="5"/>
+      <c r="BG74" s="5"/>
+      <c r="BH74" s="5"/>
+      <c r="BI74" s="5"/>
+      <c r="BJ74" s="5"/>
+      <c r="BK74" s="5"/>
+      <c r="BL74" s="5"/>
+      <c r="BM74" s="5"/>
+      <c r="BN74" s="5"/>
+      <c r="BO74" s="5"/>
+    </row>
+    <row r="75" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
+      <c r="AC75" s="13"/>
+      <c r="AD75" s="13"/>
+      <c r="AE75" s="13"/>
+      <c r="AF75" s="13"/>
+      <c r="AG75" s="13"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="5"/>
+      <c r="AS75" s="5"/>
+      <c r="AT75" s="5"/>
+      <c r="AU75" s="5"/>
+      <c r="AV75" s="5"/>
+      <c r="AW75" s="5"/>
+      <c r="AX75" s="5"/>
+      <c r="AY75" s="5"/>
+      <c r="AZ75" s="5"/>
+      <c r="BA75" s="5"/>
+      <c r="BB75" s="5"/>
+      <c r="BC75" s="5"/>
+      <c r="BD75" s="5"/>
+      <c r="BE75" s="5"/>
+      <c r="BF75" s="5"/>
+      <c r="BG75" s="5"/>
+      <c r="BH75" s="5"/>
+      <c r="BI75" s="5"/>
+      <c r="BJ75" s="5"/>
+      <c r="BK75" s="5"/>
+      <c r="BL75" s="5"/>
+      <c r="BM75" s="5"/>
+      <c r="BN75" s="5"/>
+      <c r="BO75" s="5"/>
+    </row>
+    <row r="76" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="16"/>
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
@@ -6099,231 +6247,6 @@
       <c r="BN76" s="5"/>
       <c r="BO76" s="5"/>
     </row>
-    <row r="77" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="11"/>
-      <c r="AB77" s="11"/>
-      <c r="AC77" s="11"/>
-      <c r="AD77" s="11"/>
-      <c r="AE77" s="11"/>
-      <c r="AF77" s="11"/>
-      <c r="AG77" s="11"/>
-      <c r="AH77" s="5"/>
-      <c r="AI77" s="5"/>
-      <c r="AJ77" s="5"/>
-      <c r="AK77" s="5"/>
-      <c r="AL77" s="5"/>
-      <c r="AM77" s="5"/>
-      <c r="AN77" s="5"/>
-      <c r="AO77" s="5"/>
-      <c r="AP77" s="5"/>
-      <c r="AQ77" s="5"/>
-      <c r="AR77" s="5"/>
-      <c r="AS77" s="5"/>
-      <c r="AT77" s="5"/>
-      <c r="AU77" s="5"/>
-      <c r="AV77" s="5"/>
-      <c r="AW77" s="5"/>
-      <c r="AX77" s="5"/>
-      <c r="AY77" s="5"/>
-      <c r="AZ77" s="5"/>
-      <c r="BA77" s="5"/>
-      <c r="BB77" s="5"/>
-      <c r="BC77" s="5"/>
-      <c r="BD77" s="5"/>
-      <c r="BE77" s="5"/>
-      <c r="BF77" s="5"/>
-      <c r="BG77" s="5"/>
-      <c r="BH77" s="5"/>
-      <c r="BI77" s="5"/>
-      <c r="BJ77" s="5"/>
-      <c r="BK77" s="5"/>
-      <c r="BL77" s="5"/>
-      <c r="BM77" s="5"/>
-      <c r="BN77" s="5"/>
-      <c r="BO77" s="5"/>
-    </row>
-    <row r="78" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="11"/>
-      <c r="AD78" s="11"/>
-      <c r="AE78" s="11"/>
-      <c r="AF78" s="11"/>
-      <c r="AG78" s="11"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="5"/>
-      <c r="AJ78" s="5"/>
-      <c r="AK78" s="5"/>
-      <c r="AL78" s="5"/>
-      <c r="AM78" s="5"/>
-      <c r="AN78" s="5"/>
-      <c r="AO78" s="5"/>
-      <c r="AP78" s="5"/>
-      <c r="AQ78" s="5"/>
-      <c r="AR78" s="5"/>
-      <c r="AS78" s="5"/>
-      <c r="AT78" s="5"/>
-      <c r="AU78" s="5"/>
-      <c r="AV78" s="5"/>
-      <c r="AW78" s="5"/>
-      <c r="AX78" s="5"/>
-      <c r="AY78" s="5"/>
-      <c r="AZ78" s="5"/>
-      <c r="BA78" s="5"/>
-      <c r="BB78" s="5"/>
-      <c r="BC78" s="5"/>
-      <c r="BD78" s="5"/>
-      <c r="BE78" s="5"/>
-      <c r="BF78" s="5"/>
-      <c r="BG78" s="5"/>
-      <c r="BH78" s="5"/>
-      <c r="BI78" s="5"/>
-      <c r="BJ78" s="5"/>
-      <c r="BK78" s="5"/>
-      <c r="BL78" s="5"/>
-      <c r="BM78" s="5"/>
-      <c r="BN78" s="5"/>
-      <c r="BO78" s="5"/>
-    </row>
-    <row r="79" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="12"/>
-      <c r="U79" s="12"/>
-      <c r="V79" s="12"/>
-      <c r="W79" s="12"/>
-      <c r="X79" s="12"/>
-      <c r="Y79" s="12"/>
-      <c r="Z79" s="12"/>
-      <c r="AA79" s="12"/>
-      <c r="AB79" s="12"/>
-      <c r="AC79" s="12"/>
-      <c r="AD79" s="12"/>
-      <c r="AE79" s="12"/>
-      <c r="AF79" s="12"/>
-      <c r="AG79" s="12"/>
-      <c r="AH79" s="5"/>
-      <c r="AI79" s="5"/>
-      <c r="AJ79" s="5"/>
-      <c r="AK79" s="5"/>
-      <c r="AL79" s="5"/>
-      <c r="AM79" s="5"/>
-      <c r="AN79" s="5"/>
-      <c r="AO79" s="5"/>
-      <c r="AP79" s="5"/>
-      <c r="AQ79" s="5"/>
-      <c r="AR79" s="5"/>
-      <c r="AS79" s="5"/>
-      <c r="AT79" s="5"/>
-      <c r="AU79" s="5"/>
-      <c r="AV79" s="5"/>
-      <c r="AW79" s="5"/>
-      <c r="AX79" s="5"/>
-      <c r="AY79" s="5"/>
-      <c r="AZ79" s="5"/>
-      <c r="BA79" s="5"/>
-      <c r="BB79" s="5"/>
-      <c r="BC79" s="5"/>
-      <c r="BD79" s="5"/>
-      <c r="BE79" s="5"/>
-      <c r="BF79" s="5"/>
-      <c r="BG79" s="5"/>
-      <c r="BH79" s="5"/>
-      <c r="BI79" s="5"/>
-      <c r="BJ79" s="5"/>
-      <c r="BK79" s="5"/>
-      <c r="BL79" s="5"/>
-      <c r="BM79" s="5"/>
-      <c r="BN79" s="5"/>
-      <c r="BO79" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6344,16 +6267,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/internal_datamap_files/DECODER_covariate_map.xlsx
+++ b/internal_datamap_files/DECODER_covariate_map.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NFB/Documents/GitHub/VivID_Epi/internal_datamap_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Epi/internal_datamap_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78FA765-C168-9A46-8C37-F9E10F5A1BF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="37180" windowHeight="25020"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25080" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covars" sheetId="1" r:id="rId1"/>
     <sheet name="old covars" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="164">
   <si>
     <t>pfldhct_cont</t>
   </si>
@@ -411,9 +412,6 @@
     <t>wlthrcde_combscor_cont</t>
   </si>
   <si>
-    <t>collinear</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -517,12 +515,21 @@
   </si>
   <si>
     <t>spatial_predictions</t>
+  </si>
+  <si>
+    <t>colllinear_level</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -563,7 +570,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +611,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF544D"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -662,7 +675,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -680,6 +693,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -688,6 +703,12 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -701,12 +722,8 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1366,6 +1383,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF544D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1378,51 +1400,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG76" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:AG76">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="cluster"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AG76" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A1:AG76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:AG79">
     <sortCondition ref="C1:C79"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="column_name"/>
-    <tableColumn id="2" name="var_label"/>
-    <tableColumn id="3" name="level"/>
-    <tableColumn id="4" name="type" dataDxfId="29"/>
-    <tableColumn id="6" name="collinear" dataDxfId="28"/>
-    <tableColumn id="9" name="risk_factor_raw" dataDxfId="27"/>
-    <tableColumn id="5" name="risk_factor_model" dataDxfId="26"/>
-    <tableColumn id="7" name="spatial_predictions" dataDxfId="25"/>
-    <tableColumn id="8" name="Column2" dataDxfId="24"/>
-    <tableColumn id="10" name="Column3" dataDxfId="23"/>
-    <tableColumn id="11" name="Column4" dataDxfId="22"/>
-    <tableColumn id="12" name="Column5" dataDxfId="21"/>
-    <tableColumn id="13" name="Column6" dataDxfId="20"/>
-    <tableColumn id="14" name="Column7" dataDxfId="19"/>
-    <tableColumn id="15" name="Column8" dataDxfId="18"/>
-    <tableColumn id="16" name="Column9" dataDxfId="17"/>
-    <tableColumn id="17" name="Column10" dataDxfId="16"/>
-    <tableColumn id="18" name="Column11" dataDxfId="15"/>
-    <tableColumn id="19" name="Column12" dataDxfId="14"/>
-    <tableColumn id="20" name="Column13" dataDxfId="13"/>
-    <tableColumn id="21" name="Column14" dataDxfId="12"/>
-    <tableColumn id="22" name="Column15" dataDxfId="11"/>
-    <tableColumn id="23" name="Column16" dataDxfId="10"/>
-    <tableColumn id="24" name="Column17" dataDxfId="9"/>
-    <tableColumn id="25" name="Column18" dataDxfId="8"/>
-    <tableColumn id="26" name="Column19" dataDxfId="7"/>
-    <tableColumn id="27" name="Column20" dataDxfId="6"/>
-    <tableColumn id="28" name="Column21" dataDxfId="5"/>
-    <tableColumn id="29" name="Column22" dataDxfId="4"/>
-    <tableColumn id="30" name="Column23" dataDxfId="3"/>
-    <tableColumn id="31" name="Column24" dataDxfId="2"/>
-    <tableColumn id="32" name="Column25" dataDxfId="1"/>
-    <tableColumn id="33" name="Column26" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="column_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="var_label"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="level"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="type" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="risk_factor_raw" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="risk_factor_model" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{86F0AA62-B09A-5A46-BD3F-BF2E1ECE7318}" name="colllinear_level" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="spatial_predictions" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column2" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column3" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column4" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column5" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column6" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column7" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column8" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column9" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column10" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column11" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column12" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column13" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column14" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column15" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column16" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column17" dataDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column18" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column19" dataDxfId="8"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column20" dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Column21" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Column22" dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Column23" dataDxfId="4"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Column24" dataDxfId="3"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Column25" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Column26" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1724,19 +1740,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="8" max="8" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1751,97 +1768,97 @@
         <v>85</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -1854,7 +1871,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -1897,7 +1914,7 @@
       <c r="AU2" s="6"/>
       <c r="AV2" s="6"/>
     </row>
-    <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1953,7 +1970,7 @@
       <c r="AU3" s="6"/>
       <c r="AV3" s="6"/>
     </row>
-    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -2009,7 +2026,7 @@
       <c r="AU4" s="6"/>
       <c r="AV4" s="6"/>
     </row>
-    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
@@ -2065,7 +2082,7 @@
       <c r="AU5" s="6"/>
       <c r="AV5" s="6"/>
     </row>
-    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -2121,7 +2138,7 @@
       <c r="AU6" s="6"/>
       <c r="AV6" s="6"/>
     </row>
-    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
@@ -2177,7 +2194,7 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="6"/>
     </row>
-    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -2233,7 +2250,7 @@
       <c r="AU8" s="6"/>
       <c r="AV8" s="6"/>
     </row>
-    <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -2289,46 +2306,48 @@
       <c r="AU9" s="6"/>
       <c r="AV9" s="6"/>
     </row>
-    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
@@ -2526,7 +2545,9 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>113</v>
       </c>
@@ -2584,7 +2605,9 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="H15" s="9" t="s">
         <v>113</v>
       </c>
@@ -2642,7 +2665,9 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>113</v>
       </c>
@@ -2700,7 +2725,9 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="H17" s="9" t="s">
         <v>113</v>
       </c>
@@ -2758,7 +2785,9 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="H18" s="9" t="s">
         <v>113</v>
       </c>
@@ -2926,10 +2955,10 @@
         <v>99</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2984,10 +3013,10 @@
         <v>99</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3043,9 +3072,11 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G23" s="9" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>113</v>
@@ -3103,9 +3134,11 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G24" s="9" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>113</v>
@@ -3162,10 +3195,10 @@
         <v>99</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -3221,9 +3254,11 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G26" s="9" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>113</v>
@@ -3280,10 +3315,10 @@
         <v>99</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -3339,9 +3374,11 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G28" s="9" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>113</v>
@@ -3398,12 +3435,14 @@
         <v>99</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="F29" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>113</v>
@@ -3460,10 +3499,10 @@
         <v>99</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E30" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -3519,9 +3558,11 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G31" s="9" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>113</v>
@@ -3578,10 +3619,10 @@
         <v>99</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E32" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -3627,19 +3668,19 @@
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -3685,19 +3726,19 @@
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -3753,9 +3794,11 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G35" s="9" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>113</v>
@@ -3803,19 +3846,21 @@
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G36" s="9" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>113</v>
@@ -3863,19 +3908,21 @@
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G37" s="9" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>113</v>
@@ -3932,10 +3979,10 @@
         <v>99</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -3991,9 +4038,11 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="G39" s="9" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>113</v>
@@ -4050,10 +4099,10 @@
         <v>99</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E40" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -4108,10 +4157,10 @@
         <v>99</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E41" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -4167,10 +4216,10 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="F42" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -4225,10 +4274,10 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="F43" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -4271,7 +4320,7 @@
       <c r="AU43" s="2"/>
       <c r="AV43" s="2"/>
     </row>
-    <row r="44" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>9</v>
       </c>
@@ -4282,13 +4331,13 @@
         <v>86</v>
       </c>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F44" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -4331,7 +4380,7 @@
       <c r="AU44" s="2"/>
       <c r="AV44" s="2"/>
     </row>
-    <row r="45" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>10</v>
       </c>
@@ -4342,13 +4391,13 @@
         <v>86</v>
       </c>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F45" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -4391,7 +4440,7 @@
       <c r="AU45" s="2"/>
       <c r="AV45" s="2"/>
     </row>
-    <row r="46" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>11</v>
       </c>
@@ -4447,7 +4496,7 @@
       <c r="AU46" s="2"/>
       <c r="AV46" s="2"/>
     </row>
-    <row r="47" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>14</v>
       </c>
@@ -4458,12 +4507,14 @@
         <v>86</v>
       </c>
       <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F47" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -4507,7 +4558,7 @@
       <c r="AU47" s="2"/>
       <c r="AV47" s="2"/>
     </row>
-    <row r="48" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -4518,10 +4569,10 @@
         <v>86</v>
       </c>
       <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="E48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -4565,7 +4616,7 @@
       <c r="AU48" s="2"/>
       <c r="AV48" s="2"/>
     </row>
-    <row r="49" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>16</v>
       </c>
@@ -4577,9 +4628,11 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G49" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -4623,7 +4676,7 @@
       <c r="AU49" s="2"/>
       <c r="AV49" s="2"/>
     </row>
-    <row r="50" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>17</v>
       </c>
@@ -4634,12 +4687,14 @@
         <v>86</v>
       </c>
       <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F50" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -4683,7 +4738,7 @@
       <c r="AU50" s="2"/>
       <c r="AV50" s="2"/>
     </row>
-    <row r="51" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
@@ -4694,12 +4749,14 @@
         <v>86</v>
       </c>
       <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F51" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -4743,7 +4800,7 @@
       <c r="AU51" s="2"/>
       <c r="AV51" s="2"/>
     </row>
-    <row r="52" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
@@ -4799,7 +4856,7 @@
       <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
     </row>
-    <row r="53" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -4810,12 +4867,14 @@
         <v>86</v>
       </c>
       <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F53" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -4859,7 +4918,7 @@
       <c r="AU53" s="2"/>
       <c r="AV53" s="2"/>
     </row>
-    <row r="54" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>125</v>
       </c>
@@ -4870,12 +4929,14 @@
         <v>86</v>
       </c>
       <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F54" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -4919,9 +4980,9 @@
       <c r="AU54" s="2"/>
       <c r="AV54" s="2"/>
     </row>
-    <row r="55" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>79</v>
@@ -4930,12 +4991,14 @@
         <v>86</v>
       </c>
       <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F55" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -4979,7 +5042,7 @@
       <c r="AU55" s="2"/>
       <c r="AV55" s="2"/>
     </row>
-    <row r="56" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>21</v>
       </c>
@@ -4990,12 +5053,14 @@
         <v>86</v>
       </c>
       <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F56" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -5039,7 +5104,7 @@
       <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
     </row>
-    <row r="57" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>22</v>
       </c>
@@ -5050,10 +5115,10 @@
         <v>86</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="E57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -5097,7 +5162,7 @@
       <c r="AU57" s="2"/>
       <c r="AV57" s="2"/>
     </row>
-    <row r="58" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>23</v>
       </c>
@@ -5109,9 +5174,11 @@
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G58" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -5155,7 +5222,7 @@
       <c r="AU58" s="2"/>
       <c r="AV58" s="2"/>
     </row>
-    <row r="59" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>24</v>
       </c>
@@ -5166,10 +5233,10 @@
         <v>86</v>
       </c>
       <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="E59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -5213,7 +5280,7 @@
       <c r="AU59" s="2"/>
       <c r="AV59" s="2"/>
     </row>
-    <row r="60" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>25</v>
       </c>
@@ -5225,9 +5292,11 @@
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G60" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -5271,7 +5340,7 @@
       <c r="AU60" s="2"/>
       <c r="AV60" s="2"/>
     </row>
-    <row r="61" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>26</v>
       </c>
@@ -5282,12 +5351,14 @@
         <v>86</v>
       </c>
       <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F61" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -5331,7 +5402,7 @@
       <c r="AU61" s="2"/>
       <c r="AV61" s="2"/>
     </row>
-    <row r="62" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>59</v>
       </c>
@@ -5387,7 +5458,7 @@
       <c r="AU62" s="2"/>
       <c r="AV62" s="2"/>
     </row>
-    <row r="63" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>60</v>
       </c>
@@ -5443,7 +5514,7 @@
       <c r="AU63" s="2"/>
       <c r="AV63" s="2"/>
     </row>
-    <row r="64" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>61</v>
       </c>
@@ -5499,7 +5570,7 @@
       <c r="AU64" s="4"/>
       <c r="AV64" s="4"/>
     </row>
-    <row r="65" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>62</v>
       </c>
@@ -5555,7 +5626,7 @@
       <c r="AU65" s="4"/>
       <c r="AV65" s="4"/>
     </row>
-    <row r="66" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>0</v>
       </c>
@@ -5563,7 +5634,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -5611,7 +5682,7 @@
       <c r="AU66" s="4"/>
       <c r="AV66" s="4"/>
     </row>
-    <row r="67" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>1</v>
       </c>
@@ -5619,7 +5690,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -5667,7 +5738,7 @@
       <c r="AU67" s="4"/>
       <c r="AV67" s="4"/>
     </row>
-    <row r="68" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>2</v>
       </c>
@@ -5675,7 +5746,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -5723,7 +5794,7 @@
       <c r="AU68" s="4"/>
       <c r="AV68" s="4"/>
     </row>
-    <row r="69" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>3</v>
       </c>
@@ -5731,7 +5802,7 @@
         <v>65</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
@@ -5779,7 +5850,7 @@
       <c r="AU69" s="4"/>
       <c r="AV69" s="4"/>
     </row>
-    <row r="70" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>4</v>
       </c>
@@ -5787,7 +5858,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -5835,7 +5906,7 @@
       <c r="AU70" s="4"/>
       <c r="AV70" s="4"/>
     </row>
-    <row r="71" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>5</v>
       </c>
@@ -5843,7 +5914,7 @@
         <v>65</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
@@ -5891,7 +5962,7 @@
       <c r="AU71" s="4"/>
       <c r="AV71" s="4"/>
     </row>
-    <row r="72" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>6</v>
       </c>
@@ -5899,7 +5970,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -5947,7 +6018,7 @@
       <c r="AU72" s="4"/>
       <c r="AV72" s="4"/>
     </row>
-    <row r="73" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +6026,7 @@
         <v>67</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -6022,7 +6093,7 @@
       <c r="BN73" s="5"/>
       <c r="BO73" s="5"/>
     </row>
-    <row r="74" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>8</v>
       </c>
@@ -6030,7 +6101,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
@@ -6097,7 +6168,7 @@
       <c r="BN74" s="5"/>
       <c r="BO74" s="5"/>
     </row>
-    <row r="75" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>12</v>
       </c>
@@ -6105,7 +6176,7 @@
         <v>71</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
@@ -6172,7 +6243,7 @@
       <c r="BN75" s="5"/>
       <c r="BO75" s="5"/>
     </row>
-    <row r="76" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>13</v>
       </c>
@@ -6180,12 +6251,12 @@
         <v>72</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+      <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
@@ -6256,7 +6327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
